--- a/biology/Zoologie/Haplolepidae/Haplolepidae.xlsx
+++ b/biology/Zoologie/Haplolepidae/Haplolepidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haplolepidae sont une famille fossile de poissons à nageoires rayonnées.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Haplolepidae est créée en 1944 par le géologue et paléontologue britannique Thomas Stanley Westoll (1912-1995)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Haplolepidae est créée en 1944 par le géologue et paléontologue britannique Thomas Stanley Westoll (1912-1995),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Sous-famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parahaplolepinae Lowney, 1983 avec le genre Parahaplolepsis comme genre-type[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parahaplolepinae Lowney, 1983 avec le genre Parahaplolepsis comme genre-type.</t>
         </is>
       </c>
     </row>
@@ -572,13 +588,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les genres référencés sont au nombre de quatre hors de la sous-famille Parahaplolepinae[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les genres référencés sont au nombre de quatre hors de la sous-famille Parahaplolepinae :
 †Blairolepis Lowney, 1983
 †Blanzyhaplolepis Poplin, 1997
 † Haplolepis Miller, 1892
-† Protohaplolepis Lowney, 1983[2]
+† Protohaplolepis Lowney, 1983
 * † Microhaplolepis Lowney, 1980[réf. nécessaire]
 </t>
         </is>
